--- a/data/pca/factorExposure/factorExposure_2018-11-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07309436436987939</v>
+        <v>0.04469290129916646</v>
       </c>
       <c r="C2">
-        <v>0.05592385494584942</v>
+        <v>0.003632322696629924</v>
       </c>
       <c r="D2">
-        <v>0.06494509987609089</v>
+        <v>-0.01635072371571542</v>
       </c>
       <c r="E2">
-        <v>-0.03153784151459699</v>
+        <v>0.01458097791042669</v>
       </c>
       <c r="F2">
-        <v>-0.1383710111367409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.04564865732672672</v>
+      </c>
+      <c r="G2">
+        <v>-0.110912081556505</v>
+      </c>
+      <c r="H2">
+        <v>0.07523992430340673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.2014064607748024</v>
+        <v>0.1218222769804759</v>
       </c>
       <c r="C3">
-        <v>-0.01136623198006684</v>
+        <v>-0.0417634547461254</v>
       </c>
       <c r="D3">
-        <v>0.132339057925744</v>
+        <v>-0.0511022752641553</v>
       </c>
       <c r="E3">
-        <v>-0.09606362924042872</v>
+        <v>0.006960511750974163</v>
       </c>
       <c r="F3">
-        <v>-0.3565530026471649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.03066683017684392</v>
+      </c>
+      <c r="G3">
+        <v>-0.34782545557675</v>
+      </c>
+      <c r="H3">
+        <v>0.2799505969981206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06842825960096262</v>
+        <v>0.05545547244343069</v>
       </c>
       <c r="C4">
-        <v>0.0289867507214954</v>
+        <v>-0.005172265244614881</v>
       </c>
       <c r="D4">
-        <v>0.0432739209695779</v>
+        <v>-0.02325178915574258</v>
       </c>
       <c r="E4">
-        <v>-0.06272006641814939</v>
+        <v>-0.01926691850975043</v>
       </c>
       <c r="F4">
-        <v>-0.05832372054019911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06711679317135719</v>
+      </c>
+      <c r="G4">
+        <v>-0.05737688097481301</v>
+      </c>
+      <c r="H4">
+        <v>0.02807603681082251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.007794636853991241</v>
+        <v>0.03243593709932363</v>
       </c>
       <c r="C6">
-        <v>0.003644779246983021</v>
+        <v>-0.001938175533944439</v>
       </c>
       <c r="D6">
-        <v>0.004593515548481848</v>
+        <v>-0.01286788999316819</v>
       </c>
       <c r="E6">
-        <v>0.004736393271911391</v>
+        <v>-0.004412067384741966</v>
       </c>
       <c r="F6">
-        <v>0.0007655549886936001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02945648998580904</v>
+      </c>
+      <c r="G6">
+        <v>-0.009043846542160595</v>
+      </c>
+      <c r="H6">
+        <v>-0.03133877521312591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03628788755249313</v>
+        <v>0.02847084693326987</v>
       </c>
       <c r="C7">
-        <v>0.01705708758284435</v>
+        <v>-0.003687413239151332</v>
       </c>
       <c r="D7">
-        <v>0.0419876718736289</v>
+        <v>-0.004213036398209104</v>
       </c>
       <c r="E7">
-        <v>-0.01691625444669506</v>
+        <v>-0.03359621250533851</v>
       </c>
       <c r="F7">
-        <v>-0.05924646772633477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02706839327552612</v>
+      </c>
+      <c r="G7">
+        <v>-0.04644225845866914</v>
+      </c>
+      <c r="H7">
+        <v>0.0445742076510544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03617246537500232</v>
+        <v>0.01116804021708158</v>
       </c>
       <c r="C8">
-        <v>0.0006376546052191339</v>
+        <v>-0.005671463507762992</v>
       </c>
       <c r="D8">
-        <v>0.03363576595225225</v>
+        <v>-0.02768823343661992</v>
       </c>
       <c r="E8">
-        <v>-0.05469618882878109</v>
+        <v>-0.01336069047887641</v>
       </c>
       <c r="F8">
-        <v>-0.09006614126015357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0348613234592877</v>
+      </c>
+      <c r="G8">
+        <v>-0.069084500464657</v>
+      </c>
+      <c r="H8">
+        <v>0.05350038985331169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05476691691578531</v>
+        <v>0.04430383570071242</v>
       </c>
       <c r="C9">
-        <v>0.02600986300847655</v>
+        <v>-0.007541656169196258</v>
       </c>
       <c r="D9">
-        <v>0.02609148817235912</v>
+        <v>-0.01780496143370321</v>
       </c>
       <c r="E9">
-        <v>-0.06900080304580891</v>
+        <v>-0.01846563909466149</v>
       </c>
       <c r="F9">
-        <v>-0.05967726964088965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04583477713721938</v>
+      </c>
+      <c r="G9">
+        <v>-0.07360086022169296</v>
+      </c>
+      <c r="H9">
+        <v>0.02830133481092533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03429300983903956</v>
+        <v>0.05521841790539286</v>
       </c>
       <c r="C10">
-        <v>0.06908378502876951</v>
+        <v>-0.01765488260159913</v>
       </c>
       <c r="D10">
-        <v>-0.1009810748805542</v>
+        <v>0.1464587799525196</v>
       </c>
       <c r="E10">
-        <v>0.1052468375688159</v>
+        <v>0.02652244289757918</v>
       </c>
       <c r="F10">
-        <v>-0.08312037821483009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08283679725252448</v>
+      </c>
+      <c r="G10">
+        <v>-0.04701763053525659</v>
+      </c>
+      <c r="H10">
+        <v>0.02696244232923898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0462595913535002</v>
+        <v>0.03168467720830051</v>
       </c>
       <c r="C11">
-        <v>0.006076193697990834</v>
+        <v>-0.01601294732666135</v>
       </c>
       <c r="D11">
-        <v>0.02931163020950377</v>
+        <v>-0.02711923872994607</v>
       </c>
       <c r="E11">
-        <v>-0.01770468590053228</v>
+        <v>0.003583338635073462</v>
       </c>
       <c r="F11">
-        <v>-0.03547156233988348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02639180744512548</v>
+      </c>
+      <c r="G11">
+        <v>-0.04408837494646655</v>
+      </c>
+      <c r="H11">
+        <v>0.008707363312639077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0458972530618021</v>
+        <v>0.03686359357846299</v>
       </c>
       <c r="C12">
-        <v>0.007649457297996582</v>
+        <v>-0.01345474697057475</v>
       </c>
       <c r="D12">
-        <v>0.02373355119413667</v>
+        <v>-0.02545645963825775</v>
       </c>
       <c r="E12">
-        <v>-0.03515192725347246</v>
+        <v>-0.007731536856758548</v>
       </c>
       <c r="F12">
-        <v>-0.01915329676864422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02833480417886568</v>
+      </c>
+      <c r="G12">
+        <v>-0.01303437967801046</v>
+      </c>
+      <c r="H12">
+        <v>0.007648180262471104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04674833858703539</v>
+        <v>0.03478258174246944</v>
       </c>
       <c r="C13">
-        <v>0.01992744168681895</v>
+        <v>0.006809766291556984</v>
       </c>
       <c r="D13">
-        <v>0.04772052595103059</v>
+        <v>-0.01037125830111105</v>
       </c>
       <c r="E13">
-        <v>-0.005638007362709263</v>
+        <v>0.01605773599534082</v>
       </c>
       <c r="F13">
-        <v>-0.1110734705401187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02884886117927826</v>
+      </c>
+      <c r="G13">
+        <v>-0.08883000657223029</v>
+      </c>
+      <c r="H13">
+        <v>0.03482908449532893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02097467753074408</v>
+        <v>0.01834807139266375</v>
       </c>
       <c r="C14">
-        <v>0.01850851502658675</v>
+        <v>-0.002861051647930509</v>
       </c>
       <c r="D14">
-        <v>0.02792955764315015</v>
+        <v>-0.003020212479176092</v>
       </c>
       <c r="E14">
-        <v>-0.03196053030518146</v>
+        <v>-0.007707202206176655</v>
       </c>
       <c r="F14">
-        <v>-0.0588665492372362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03100542532359543</v>
+      </c>
+      <c r="G14">
+        <v>-0.044836874330428</v>
+      </c>
+      <c r="H14">
+        <v>0.06211177036544967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03755919519489177</v>
+        <v>0.03032166541492198</v>
       </c>
       <c r="C16">
-        <v>0.007056822707596596</v>
+        <v>-0.01518745728265052</v>
       </c>
       <c r="D16">
-        <v>0.02534247266872931</v>
+        <v>-0.02574172501682422</v>
       </c>
       <c r="E16">
-        <v>-0.01763153312896705</v>
+        <v>-0.001572105060634359</v>
       </c>
       <c r="F16">
-        <v>-0.0288888515307595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02599508677664214</v>
+      </c>
+      <c r="G16">
+        <v>-0.03199214633788808</v>
+      </c>
+      <c r="H16">
+        <v>0.009883111449957575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05653846359519034</v>
+        <v>0.04001515329203535</v>
       </c>
       <c r="C19">
-        <v>-3.122565422803062e-05</v>
+        <v>-0.006903734212550161</v>
       </c>
       <c r="D19">
-        <v>0.04155776748069581</v>
+        <v>-0.02335325639977145</v>
       </c>
       <c r="E19">
-        <v>-0.01884636068683455</v>
+        <v>0.002708799026215218</v>
       </c>
       <c r="F19">
-        <v>-0.09496339710378396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03751658693940923</v>
+      </c>
+      <c r="G19">
+        <v>-0.08988418838922978</v>
+      </c>
+      <c r="H19">
+        <v>0.04254470189631936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01580001019173222</v>
+        <v>0.01123882506462115</v>
       </c>
       <c r="C20">
-        <v>0.01280169918702003</v>
+        <v>0.004487107124270805</v>
       </c>
       <c r="D20">
-        <v>0.03859216569195011</v>
+        <v>-0.01235957659707774</v>
       </c>
       <c r="E20">
-        <v>-0.04325936212668075</v>
+        <v>-0.004969350665566405</v>
       </c>
       <c r="F20">
-        <v>-0.05647966610915923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0263698362049558</v>
+      </c>
+      <c r="G20">
+        <v>-0.05175580687753671</v>
+      </c>
+      <c r="H20">
+        <v>0.05820492304999481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01604797615152019</v>
+        <v>0.02538447713355147</v>
       </c>
       <c r="C21">
-        <v>-0.002489001283812382</v>
+        <v>0.002621313404515787</v>
       </c>
       <c r="D21">
-        <v>0.03136940345784873</v>
+        <v>-0.00969631281004134</v>
       </c>
       <c r="E21">
-        <v>-0.02337614273291712</v>
+        <v>-0.01207356208030939</v>
       </c>
       <c r="F21">
-        <v>-0.09595135180844461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01555814628654611</v>
+      </c>
+      <c r="G21">
+        <v>-0.07301733622338723</v>
+      </c>
+      <c r="H21">
+        <v>0.02821387000350914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03483005543476829</v>
+        <v>0.02859074516835618</v>
       </c>
       <c r="C24">
-        <v>0.005704033441119125</v>
+        <v>-0.009677332113050063</v>
       </c>
       <c r="D24">
-        <v>0.0217539794092446</v>
+        <v>-0.0237874420509306</v>
       </c>
       <c r="E24">
-        <v>-0.01950224245654419</v>
+        <v>-0.002142663331569344</v>
       </c>
       <c r="F24">
-        <v>-0.03724131498232718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02293340358988831</v>
+      </c>
+      <c r="G24">
+        <v>-0.03313525477852681</v>
+      </c>
+      <c r="H24">
+        <v>0.004227127773846688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0409236470877216</v>
+        <v>0.03919981492365612</v>
       </c>
       <c r="C25">
-        <v>0.005323868170476765</v>
+        <v>-0.008988895587872477</v>
       </c>
       <c r="D25">
-        <v>0.02488426823330786</v>
+        <v>-0.02251114811964803</v>
       </c>
       <c r="E25">
-        <v>-0.02672686058997411</v>
+        <v>-0.002693972579441171</v>
       </c>
       <c r="F25">
-        <v>-0.04239074579211601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0298684552588313</v>
+      </c>
+      <c r="G25">
+        <v>-0.04407163833005407</v>
+      </c>
+      <c r="H25">
+        <v>0.004848853762032481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01937699668101893</v>
+        <v>0.01971856997764177</v>
       </c>
       <c r="C26">
-        <v>-0.003656106087866829</v>
+        <v>0.01599786563812692</v>
       </c>
       <c r="D26">
-        <v>0.04708051144128332</v>
+        <v>-0.01558817785599012</v>
       </c>
       <c r="E26">
-        <v>-0.01489634105083315</v>
+        <v>0.003973334070273487</v>
       </c>
       <c r="F26">
-        <v>-0.0502329893304698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01088251387862462</v>
+      </c>
+      <c r="G26">
+        <v>-0.0465296038386388</v>
+      </c>
+      <c r="H26">
+        <v>0.04333131384481633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.1001671423593036</v>
+        <v>0.04778688207978307</v>
       </c>
       <c r="C27">
-        <v>0.04831710941687138</v>
+        <v>-0.02310643397034844</v>
       </c>
       <c r="D27">
-        <v>0.02336067926089895</v>
+        <v>-0.003106405289364885</v>
       </c>
       <c r="E27">
-        <v>-0.04046451895170847</v>
+        <v>-0.0009646842194095982</v>
       </c>
       <c r="F27">
-        <v>-0.06059711596486098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.03183584927131742</v>
+      </c>
+      <c r="G27">
+        <v>-0.04320280783864729</v>
+      </c>
+      <c r="H27">
+        <v>0.03122086185213599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05137580627015784</v>
+        <v>0.08534329313706251</v>
       </c>
       <c r="C28">
-        <v>0.08274225253209827</v>
+        <v>-0.01342136385050383</v>
       </c>
       <c r="D28">
-        <v>-0.1663731144658274</v>
+        <v>0.2245922709039709</v>
       </c>
       <c r="E28">
-        <v>0.1574561809536205</v>
+        <v>0.03285008533905964</v>
       </c>
       <c r="F28">
-        <v>-0.06156684958781874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1235093048818728</v>
+      </c>
+      <c r="G28">
+        <v>-0.02273009790443304</v>
+      </c>
+      <c r="H28">
+        <v>0.05628275358117796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02278150003120014</v>
+        <v>0.0206057721680875</v>
       </c>
       <c r="C29">
-        <v>0.01728964253893607</v>
+        <v>-0.004227295285103644</v>
       </c>
       <c r="D29">
-        <v>0.0236571611008804</v>
+        <v>-0.00299354518197144</v>
       </c>
       <c r="E29">
-        <v>-0.03981249160919271</v>
+        <v>-0.008828513686628231</v>
       </c>
       <c r="F29">
-        <v>-0.03644438971428712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03131842779258875</v>
+      </c>
+      <c r="G29">
+        <v>-0.03430612667319207</v>
+      </c>
+      <c r="H29">
+        <v>0.06111494193245944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1029762325459112</v>
+        <v>0.07690902011279374</v>
       </c>
       <c r="C30">
-        <v>0.04707020420014117</v>
+        <v>-0.01320223908815068</v>
       </c>
       <c r="D30">
-        <v>0.06557356825449792</v>
+        <v>-0.03650568445343895</v>
       </c>
       <c r="E30">
-        <v>-0.03783644950800747</v>
+        <v>0.0393158081502674</v>
       </c>
       <c r="F30">
-        <v>-0.07193853667607736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.07232850728592538</v>
+      </c>
+      <c r="G30">
+        <v>-0.08785069492668036</v>
+      </c>
+      <c r="H30">
+        <v>0.01769907108627484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06078668520590273</v>
+        <v>0.05380186180128678</v>
       </c>
       <c r="C31">
-        <v>0.01570463089993857</v>
+        <v>-0.02064634760172488</v>
       </c>
       <c r="D31">
-        <v>0.03899787986059187</v>
+        <v>-0.009446870752090844</v>
       </c>
       <c r="E31">
-        <v>0.01306735217342072</v>
+        <v>0.009388898372616446</v>
       </c>
       <c r="F31">
-        <v>-0.02558179094215918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02099570238073125</v>
+      </c>
+      <c r="G31">
+        <v>-0.01639314062455989</v>
+      </c>
+      <c r="H31">
+        <v>0.06099900412815328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0541596559048452</v>
+        <v>0.01903691243269653</v>
       </c>
       <c r="C32">
-        <v>0.01049737301238714</v>
+        <v>-0.0203763446318628</v>
       </c>
       <c r="D32">
-        <v>0.04839642569909854</v>
+        <v>-0.01826724446582067</v>
       </c>
       <c r="E32">
-        <v>-0.06258941239538642</v>
+        <v>-0.01788372177831889</v>
       </c>
       <c r="F32">
-        <v>-0.08095757021219778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05881474820321082</v>
+      </c>
+      <c r="G32">
+        <v>-0.07793619811000596</v>
+      </c>
+      <c r="H32">
+        <v>0.007255327471563346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06335784157964237</v>
+        <v>0.04556271508034193</v>
       </c>
       <c r="C33">
-        <v>0.0001038103365802046</v>
+        <v>-0.008411351530878334</v>
       </c>
       <c r="D33">
-        <v>0.06418521182848995</v>
+        <v>-0.03812601979570156</v>
       </c>
       <c r="E33">
-        <v>-0.02399017363281716</v>
+        <v>0.01971553349140307</v>
       </c>
       <c r="F33">
-        <v>-0.0858413234653701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02266122874842054</v>
+      </c>
+      <c r="G33">
+        <v>-0.07714526579727261</v>
+      </c>
+      <c r="H33">
+        <v>0.04923564851245921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.04003354177440727</v>
+        <v>0.03153901286817116</v>
       </c>
       <c r="C34">
-        <v>0.01220719267982425</v>
+        <v>-0.02335184541120649</v>
       </c>
       <c r="D34">
-        <v>0.0283582557644463</v>
+        <v>-0.02416101016508848</v>
       </c>
       <c r="E34">
-        <v>-0.02632466244066007</v>
+        <v>-0.007194458780177081</v>
       </c>
       <c r="F34">
-        <v>-0.03823104494582887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03073313663162512</v>
+      </c>
+      <c r="G34">
+        <v>-0.03494754675119211</v>
+      </c>
+      <c r="H34">
+        <v>0.008392799457204796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01753797566850106</v>
+        <v>0.02012340252037111</v>
       </c>
       <c r="C36">
-        <v>0.01149220120515166</v>
+        <v>0.002664005711230401</v>
       </c>
       <c r="D36">
-        <v>0.002018701028792419</v>
+        <v>0.003579260069474476</v>
       </c>
       <c r="E36">
-        <v>-0.009485328200811362</v>
+        <v>-0.001878469568239335</v>
       </c>
       <c r="F36">
-        <v>-0.03571399687278089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.00512332315273127</v>
+      </c>
+      <c r="G36">
+        <v>-0.0316238838555048</v>
+      </c>
+      <c r="H36">
+        <v>0.0380286013240163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01088479811116079</v>
+        <v>0.01651187464229515</v>
       </c>
       <c r="C38">
-        <v>0.007024633788227391</v>
+        <v>-0.01681033958499406</v>
       </c>
       <c r="D38">
-        <v>-0.0168086528171041</v>
+        <v>0.003375604467048084</v>
       </c>
       <c r="E38">
-        <v>-0.0001401138600697438</v>
+        <v>-0.004076746668040198</v>
       </c>
       <c r="F38">
-        <v>-0.03852416468120032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01039473809357545</v>
+      </c>
+      <c r="G38">
+        <v>-0.04737427857724914</v>
+      </c>
+      <c r="H38">
+        <v>0.01823607206305284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05254844839399391</v>
+        <v>0.03806480627037168</v>
       </c>
       <c r="C39">
-        <v>0.01792248040190792</v>
+        <v>-0.01355903959825201</v>
       </c>
       <c r="D39">
-        <v>0.04576979626031125</v>
+        <v>-0.04275852804777746</v>
       </c>
       <c r="E39">
-        <v>-0.0196985942828119</v>
+        <v>0.001478374872002828</v>
       </c>
       <c r="F39">
-        <v>-0.03479500333145793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04942076176338094</v>
+      </c>
+      <c r="G39">
+        <v>-0.04887177730103194</v>
+      </c>
+      <c r="H39">
+        <v>-0.004423862170816546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05318677971915582</v>
+        <v>0.04049674095955644</v>
       </c>
       <c r="C40">
-        <v>0.03654690678037366</v>
+        <v>-0.009937890164398172</v>
       </c>
       <c r="D40">
-        <v>0.07392171662008923</v>
+        <v>-0.02673351018878898</v>
       </c>
       <c r="E40">
-        <v>-0.01606673913622618</v>
+        <v>0.01975736113977568</v>
       </c>
       <c r="F40">
-        <v>-0.08996557372587066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04678496981035747</v>
+      </c>
+      <c r="G40">
+        <v>-0.07352456148026354</v>
+      </c>
+      <c r="H40">
+        <v>0.03694248958406243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007180553491426661</v>
+        <v>0.00386722699720481</v>
       </c>
       <c r="C41">
-        <v>-0.00360543387101807</v>
+        <v>0.002582342911072932</v>
       </c>
       <c r="D41">
-        <v>0.01625601187363547</v>
+        <v>0.001414416640080326</v>
       </c>
       <c r="E41">
-        <v>-0.01610489049276373</v>
+        <v>-0.0002117525650199156</v>
       </c>
       <c r="F41">
-        <v>-0.01191632477121005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0002991844872222674</v>
+      </c>
+      <c r="G41">
+        <v>-0.01051211847769678</v>
+      </c>
+      <c r="H41">
+        <v>0.04865143108078957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3396078310519286</v>
+        <v>0.2876185500147628</v>
       </c>
       <c r="C42">
-        <v>-0.8790599762562011</v>
+        <v>0.04511172726955742</v>
       </c>
       <c r="D42">
-        <v>-0.02311376517559945</v>
+        <v>-0.5740227683869067</v>
       </c>
       <c r="E42">
-        <v>0.2803710102643684</v>
+        <v>0.05083723044310681</v>
       </c>
       <c r="F42">
-        <v>0.05004772231428953</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7499345862952699</v>
+      </c>
+      <c r="G42">
+        <v>0.04780519720705138</v>
+      </c>
+      <c r="H42">
+        <v>-0.02875387310809202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01362041122215075</v>
+        <v>0.003014829985727193</v>
       </c>
       <c r="C43">
-        <v>0.000538403101592743</v>
+        <v>0.004312997246969465</v>
       </c>
       <c r="D43">
-        <v>0.02264620972422212</v>
+        <v>-0.001480022719363863</v>
       </c>
       <c r="E43">
-        <v>-0.01385944007962009</v>
+        <v>0.003664039201863223</v>
       </c>
       <c r="F43">
-        <v>-0.03521148235073768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003338140864800501</v>
+      </c>
+      <c r="G43">
+        <v>-0.02163546821998953</v>
+      </c>
+      <c r="H43">
+        <v>0.0477868801364063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03353885098239292</v>
+        <v>0.01857563861482806</v>
       </c>
       <c r="C44">
-        <v>0.003543600674680215</v>
+        <v>-0.004027494184795052</v>
       </c>
       <c r="D44">
-        <v>0.05409168708086835</v>
+        <v>-0.02350095450633576</v>
       </c>
       <c r="E44">
-        <v>-0.04030512880688362</v>
+        <v>-0.002708042167477106</v>
       </c>
       <c r="F44">
-        <v>-0.1620795467916806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01232306483148217</v>
+      </c>
+      <c r="G44">
+        <v>-0.1093298616961928</v>
+      </c>
+      <c r="H44">
+        <v>0.08666611579827992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02501411485276552</v>
+        <v>0.02156868021541174</v>
       </c>
       <c r="C46">
-        <v>0.01277729857601151</v>
+        <v>-0.001178846723002832</v>
       </c>
       <c r="D46">
-        <v>0.04365547998456305</v>
+        <v>-0.01477912078601683</v>
       </c>
       <c r="E46">
-        <v>-0.03317008065312634</v>
+        <v>0.002370437466906104</v>
       </c>
       <c r="F46">
-        <v>-0.03503827439728154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0397215853658443</v>
+      </c>
+      <c r="G46">
+        <v>-0.04801838658389604</v>
+      </c>
+      <c r="H46">
+        <v>0.06219984299529818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09157817963268193</v>
+        <v>0.0764657093931614</v>
       </c>
       <c r="C47">
-        <v>0.03289765058445585</v>
+        <v>-0.03957702565838699</v>
       </c>
       <c r="D47">
-        <v>0.02925463220961873</v>
+        <v>-0.01333385919000877</v>
       </c>
       <c r="E47">
-        <v>-0.01524445891571956</v>
+        <v>0.00449006709278718</v>
       </c>
       <c r="F47">
-        <v>0.00332012914099861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03314047272428878</v>
+      </c>
+      <c r="G47">
+        <v>0.01463458591667771</v>
+      </c>
+      <c r="H47">
+        <v>0.06983960838627418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01618041695949967</v>
+        <v>0.01884508914366247</v>
       </c>
       <c r="C48">
-        <v>0.006170865800819113</v>
+        <v>-0.007602505112756463</v>
       </c>
       <c r="D48">
-        <v>0.02515678954335162</v>
+        <v>-0.006152990547414399</v>
       </c>
       <c r="E48">
-        <v>-0.02298346478458195</v>
+        <v>0.0002402360615382825</v>
       </c>
       <c r="F48">
-        <v>-0.04701553472637725</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01345161041628823</v>
+      </c>
+      <c r="G48">
+        <v>-0.03503415000268919</v>
+      </c>
+      <c r="H48">
+        <v>0.03308603767591056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09560502476724878</v>
+        <v>0.07485290248021534</v>
       </c>
       <c r="C50">
-        <v>0.01216646594073752</v>
+        <v>-0.03543869389617968</v>
       </c>
       <c r="D50">
-        <v>0.03873055896075508</v>
+        <v>-0.02561142552613089</v>
       </c>
       <c r="E50">
-        <v>-0.004047035327916265</v>
+        <v>-0.008942723296873588</v>
       </c>
       <c r="F50">
-        <v>-0.004566851471362719</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02727782374243335</v>
+      </c>
+      <c r="G50">
+        <v>-0.01682341125538049</v>
+      </c>
+      <c r="H50">
+        <v>0.05725045129539868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0462277363682764</v>
+        <v>0.02580138297224199</v>
       </c>
       <c r="C51">
-        <v>0.002527499426145645</v>
+        <v>-0.003039781148313892</v>
       </c>
       <c r="D51">
-        <v>0.03044634994035822</v>
+        <v>0.001955007540910078</v>
       </c>
       <c r="E51">
-        <v>0.02781555520157481</v>
+        <v>0.01281319556225312</v>
       </c>
       <c r="F51">
-        <v>-0.1379820318620238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0111849131770854</v>
+      </c>
+      <c r="G51">
+        <v>-0.09441022456662025</v>
+      </c>
+      <c r="H51">
+        <v>0.06760907623590347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1185277472170738</v>
+        <v>0.1049869679714304</v>
       </c>
       <c r="C53">
-        <v>0.02928776967653585</v>
+        <v>-0.05355395925098188</v>
       </c>
       <c r="D53">
-        <v>0.06240698759452057</v>
+        <v>-0.04015234442709047</v>
       </c>
       <c r="E53">
-        <v>-0.02600547011702041</v>
+        <v>0.001737237170056865</v>
       </c>
       <c r="F53">
-        <v>0.07794308641901873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06222286371701314</v>
+      </c>
+      <c r="G53">
+        <v>0.05975603963327192</v>
+      </c>
+      <c r="H53">
+        <v>0.03578472521694782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02124688486270973</v>
+        <v>0.01891039533134302</v>
       </c>
       <c r="C54">
-        <v>0.02655848182431507</v>
+        <v>-0.01312974624706933</v>
       </c>
       <c r="D54">
-        <v>0.01488557100730663</v>
+        <v>0.01472892221359346</v>
       </c>
       <c r="E54">
-        <v>-0.01890246075972244</v>
+        <v>-0.003026418737352896</v>
       </c>
       <c r="F54">
-        <v>-0.0567504943358118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02000174265156046</v>
+      </c>
+      <c r="G54">
+        <v>-0.04251824628320353</v>
+      </c>
+      <c r="H54">
+        <v>0.07007432117637534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1079489497737424</v>
+        <v>0.09026005426770708</v>
       </c>
       <c r="C55">
-        <v>0.02275869380714542</v>
+        <v>-0.0469188644278383</v>
       </c>
       <c r="D55">
-        <v>0.01523216062155038</v>
+        <v>-0.03522954988537882</v>
       </c>
       <c r="E55">
-        <v>-0.04332484124981206</v>
+        <v>-0.01150921077306756</v>
       </c>
       <c r="F55">
-        <v>0.0701063919120566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0512524834556157</v>
+      </c>
+      <c r="G55">
+        <v>0.04789898704821013</v>
+      </c>
+      <c r="H55">
+        <v>0.04531832348098612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1443701396777738</v>
+        <v>0.1350558543571461</v>
       </c>
       <c r="C56">
-        <v>0.06990879109342922</v>
+        <v>-0.07568140902967413</v>
       </c>
       <c r="D56">
-        <v>0.03994149779562917</v>
+        <v>-0.03220278326447507</v>
       </c>
       <c r="E56">
-        <v>-0.04505008929753939</v>
+        <v>-0.003183678892401364</v>
       </c>
       <c r="F56">
-        <v>0.1472058965752795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08430118538950232</v>
+      </c>
+      <c r="G56">
+        <v>0.1066283290268363</v>
+      </c>
+      <c r="H56">
+        <v>0.001912719589063738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.06042277040775421</v>
+        <v>0.05046147375166726</v>
       </c>
       <c r="C57">
-        <v>0.01686802580539284</v>
+        <v>0.0008767075773583419</v>
       </c>
       <c r="D57">
-        <v>0.0456319276488654</v>
+        <v>-0.01553955104413595</v>
       </c>
       <c r="E57">
-        <v>-0.002537647592124156</v>
+        <v>0.01258923779059362</v>
       </c>
       <c r="F57">
-        <v>-0.08424572429240496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03095947410953675</v>
+      </c>
+      <c r="G57">
+        <v>-0.07038715193899689</v>
+      </c>
+      <c r="H57">
+        <v>0.02002494589599215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2300366402958445</v>
+        <v>0.1684664681060036</v>
       </c>
       <c r="C58">
-        <v>0.05482821246113989</v>
+        <v>-0.0671360947973179</v>
       </c>
       <c r="D58">
-        <v>0.1151902827565302</v>
+        <v>-0.06353312199556545</v>
       </c>
       <c r="E58">
-        <v>-0.02696533550925687</v>
+        <v>0.1058917148309643</v>
       </c>
       <c r="F58">
-        <v>-0.1958146633434693</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.0492593633238339</v>
+      </c>
+      <c r="G58">
+        <v>-0.4216583073924068</v>
+      </c>
+      <c r="H58">
+        <v>0.3233384309148688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05566479976833808</v>
+        <v>0.08909687557757488</v>
       </c>
       <c r="C59">
-        <v>0.1066517857916582</v>
+        <v>-0.0226001354143183</v>
       </c>
       <c r="D59">
-        <v>-0.1221878109774097</v>
+        <v>0.1995000769595361</v>
       </c>
       <c r="E59">
-        <v>0.1121957590680591</v>
+        <v>0.0458161279730618</v>
       </c>
       <c r="F59">
-        <v>-0.04038488883643621</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.08993176979414473</v>
+      </c>
+      <c r="G59">
+        <v>-0.0403518485670277</v>
+      </c>
+      <c r="H59">
+        <v>0.01013758795506406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1807028358590138</v>
+        <v>0.1802165488662534</v>
       </c>
       <c r="C60">
-        <v>0.07832168259756458</v>
+        <v>-0.06071774768751778</v>
       </c>
       <c r="D60">
-        <v>0.01241908435532186</v>
+        <v>0.046462182391047</v>
       </c>
       <c r="E60">
-        <v>0.0768592071766625</v>
+        <v>0.0670516591529331</v>
       </c>
       <c r="F60">
-        <v>-0.1319543378227068</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.05109629908671522</v>
+      </c>
+      <c r="G60">
+        <v>-0.1917212150438073</v>
+      </c>
+      <c r="H60">
+        <v>-0.3757437538633916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03261663005158726</v>
+        <v>0.03103243126746479</v>
       </c>
       <c r="C61">
-        <v>0.009193981277039616</v>
+        <v>-0.01413083888563153</v>
       </c>
       <c r="D61">
-        <v>0.01955735079583169</v>
+        <v>-0.02734892699218932</v>
       </c>
       <c r="E61">
-        <v>-0.01941209196810023</v>
+        <v>-0.003309831384074195</v>
       </c>
       <c r="F61">
-        <v>-0.03383853828362608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03542107588844746</v>
+      </c>
+      <c r="G61">
+        <v>-0.03796124581324217</v>
+      </c>
+      <c r="H61">
+        <v>-0.01108795816054651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02579535884453086</v>
+        <v>0.02008552539582998</v>
       </c>
       <c r="C63">
-        <v>0.02038094819601355</v>
+        <v>-0.00354367544793713</v>
       </c>
       <c r="D63">
-        <v>0.03974044283772712</v>
+        <v>-0.01302567592800811</v>
       </c>
       <c r="E63">
-        <v>-0.03133678824194466</v>
+        <v>-0.0009119869640379742</v>
       </c>
       <c r="F63">
-        <v>-0.03757034926224515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03028919666163723</v>
+      </c>
+      <c r="G63">
+        <v>-0.03206374438094282</v>
+      </c>
+      <c r="H63">
+        <v>0.05463262273093997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05455508610363949</v>
+        <v>0.04807093427771859</v>
       </c>
       <c r="C64">
-        <v>0.009122743317903729</v>
+        <v>-0.01955454832433036</v>
       </c>
       <c r="D64">
-        <v>0.03668141856963329</v>
+        <v>-0.0339695447667511</v>
       </c>
       <c r="E64">
-        <v>-0.06650546684060668</v>
+        <v>-0.0120485607706515</v>
       </c>
       <c r="F64">
-        <v>-0.04639874724692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03873835689329515</v>
+      </c>
+      <c r="G64">
+        <v>-0.0346212717845449</v>
+      </c>
+      <c r="H64">
+        <v>0.03504106406337986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007543534514868356</v>
+        <v>0.03814479822723157</v>
       </c>
       <c r="C65">
-        <v>0.002487444119652175</v>
+        <v>-0.00250151158439901</v>
       </c>
       <c r="D65">
-        <v>0.003025769845436918</v>
+        <v>-0.01527094760478116</v>
       </c>
       <c r="E65">
-        <v>0.006403334868275687</v>
+        <v>-0.004433309103404759</v>
       </c>
       <c r="F65">
-        <v>-0.0002235514082793685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03016290560794676</v>
+      </c>
+      <c r="G65">
+        <v>-0.004220825932826889</v>
+      </c>
+      <c r="H65">
+        <v>-0.03704170100833774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05975077989294191</v>
+        <v>0.04950638286501677</v>
       </c>
       <c r="C66">
-        <v>0.0285084371394153</v>
+        <v>-0.02206441988825791</v>
       </c>
       <c r="D66">
-        <v>0.05587215658557282</v>
+        <v>-0.04728187278761665</v>
       </c>
       <c r="E66">
-        <v>-0.03735229248756832</v>
+        <v>0.009538618347243498</v>
       </c>
       <c r="F66">
-        <v>-0.0515423108065236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07224539529499681</v>
+      </c>
+      <c r="G66">
+        <v>-0.05171842133440868</v>
+      </c>
+      <c r="H66">
+        <v>-0.01538524548606629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02777738504636392</v>
+        <v>0.03420023394475648</v>
       </c>
       <c r="C67">
-        <v>0.01713654842185539</v>
+        <v>-0.02073945603789431</v>
       </c>
       <c r="D67">
-        <v>-0.02699072629571194</v>
+        <v>0.01470923474841642</v>
       </c>
       <c r="E67">
-        <v>0.01568997222227098</v>
+        <v>0.0014821272096061</v>
       </c>
       <c r="F67">
-        <v>-0.04374727744537747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01002529179422715</v>
+      </c>
+      <c r="G67">
+        <v>-0.03945081597610302</v>
+      </c>
+      <c r="H67">
+        <v>0.001886573249797062</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06251786762507067</v>
+        <v>0.09243488792026307</v>
       </c>
       <c r="C68">
-        <v>0.09265515303426794</v>
+        <v>-0.001138228174048893</v>
       </c>
       <c r="D68">
-        <v>-0.173405139067608</v>
+        <v>0.2137768364472776</v>
       </c>
       <c r="E68">
-        <v>0.1564595934720271</v>
+        <v>0.04213587999004167</v>
       </c>
       <c r="F68">
-        <v>-0.0003588460522279315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1194080263112734</v>
+      </c>
+      <c r="G68">
+        <v>-0.003347464441298775</v>
+      </c>
+      <c r="H68">
+        <v>0.04200533443896921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07191772959256783</v>
+        <v>0.06244547752701366</v>
       </c>
       <c r="C69">
-        <v>0.03440673321119814</v>
+        <v>-0.03662247523714846</v>
       </c>
       <c r="D69">
-        <v>0.0155441477896381</v>
+        <v>-0.007634002449704771</v>
       </c>
       <c r="E69">
-        <v>0.01215690787808567</v>
+        <v>0.007435213872360065</v>
       </c>
       <c r="F69">
-        <v>-0.003976348921347977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0269584942811297</v>
+      </c>
+      <c r="G69">
+        <v>-0.0004623284023430347</v>
+      </c>
+      <c r="H69">
+        <v>0.04494103884866549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06369619336790826</v>
+        <v>0.08991115453484269</v>
       </c>
       <c r="C71">
-        <v>0.1113746919266865</v>
+        <v>-0.009667198502736429</v>
       </c>
       <c r="D71">
-        <v>-0.2080049574438194</v>
+        <v>0.2238471581415597</v>
       </c>
       <c r="E71">
-        <v>0.2403202093672191</v>
+        <v>0.05044035323274772</v>
       </c>
       <c r="F71">
-        <v>-0.06556416325551431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1405722201584361</v>
+      </c>
+      <c r="G71">
+        <v>-0.02008804569557106</v>
+      </c>
+      <c r="H71">
+        <v>0.01468073186315765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1242634871565461</v>
+        <v>0.1101403794790223</v>
       </c>
       <c r="C72">
-        <v>0.102654922655509</v>
+        <v>-0.06512869699686527</v>
       </c>
       <c r="D72">
-        <v>0.03521471800416678</v>
+        <v>-0.01862787026890464</v>
       </c>
       <c r="E72">
-        <v>-0.04058653882638254</v>
+        <v>0.01353891740632029</v>
       </c>
       <c r="F72">
-        <v>-0.03538205258229144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1158230126166324</v>
+      </c>
+      <c r="G72">
+        <v>-0.1057586587593156</v>
+      </c>
+      <c r="H72">
+        <v>-0.1043784011369638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2620789830486812</v>
+        <v>0.2513620483515875</v>
       </c>
       <c r="C73">
-        <v>0.1085896936760739</v>
+        <v>-0.0801687478314374</v>
       </c>
       <c r="D73">
-        <v>-0.0204926619404774</v>
+        <v>0.03198060662598862</v>
       </c>
       <c r="E73">
-        <v>0.1146501873217877</v>
+        <v>0.09935040862847878</v>
       </c>
       <c r="F73">
-        <v>-0.2390417034074287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.05765075622716379</v>
+      </c>
+      <c r="G73">
+        <v>-0.2686718212569936</v>
+      </c>
+      <c r="H73">
+        <v>-0.533585778425762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1298018667119391</v>
+        <v>0.1219054390795121</v>
       </c>
       <c r="C74">
-        <v>0.02798538925218105</v>
+        <v>-0.06742048870779381</v>
       </c>
       <c r="D74">
-        <v>0.03317376690737958</v>
+        <v>-0.03776494637292312</v>
       </c>
       <c r="E74">
-        <v>-0.01771703545037656</v>
+        <v>0.00414083472676176</v>
       </c>
       <c r="F74">
-        <v>0.1193388481225448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06684129850165772</v>
+      </c>
+      <c r="G74">
+        <v>0.08724985869342518</v>
+      </c>
+      <c r="H74">
+        <v>-0.01014095395433083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2273282412230179</v>
+        <v>0.2348934698469718</v>
       </c>
       <c r="C75">
-        <v>0.0970731973315697</v>
+        <v>-0.1316091134193914</v>
       </c>
       <c r="D75">
-        <v>0.07247313973044267</v>
+        <v>-0.03926155601822402</v>
       </c>
       <c r="E75">
-        <v>-0.0203640267503569</v>
+        <v>0.02631765193503854</v>
       </c>
       <c r="F75">
-        <v>0.1799538444612443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1277503173036333</v>
+      </c>
+      <c r="G75">
+        <v>0.1854686259871907</v>
+      </c>
+      <c r="H75">
+        <v>0.0204129467173319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2456651832319165</v>
+        <v>0.220621591280677</v>
       </c>
       <c r="C76">
-        <v>0.1154097525779733</v>
+        <v>-0.1281707034634437</v>
       </c>
       <c r="D76">
-        <v>0.01490277934132559</v>
+        <v>-0.025218998103108</v>
       </c>
       <c r="E76">
-        <v>-0.05948137477528263</v>
+        <v>-0.01608383606077156</v>
       </c>
       <c r="F76">
-        <v>0.2202375440900207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1364315169106453</v>
+      </c>
+      <c r="G76">
+        <v>0.2016837615503314</v>
+      </c>
+      <c r="H76">
+        <v>0.03996468060958823</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1567485334749736</v>
+        <v>0.09731124156164664</v>
       </c>
       <c r="C77">
-        <v>-0.02100134946613857</v>
+        <v>-0.02809150221785856</v>
       </c>
       <c r="D77">
-        <v>0.07955745046430823</v>
+        <v>-0.06936273866448413</v>
       </c>
       <c r="E77">
-        <v>-0.02037183593829156</v>
+        <v>0.009037824721537373</v>
       </c>
       <c r="F77">
-        <v>-0.2053080587756946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01048471607119283</v>
+      </c>
+      <c r="G77">
+        <v>-0.1459334971997839</v>
+      </c>
+      <c r="H77">
+        <v>0.2038986461708474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07526372113942705</v>
+        <v>0.05221368053028289</v>
       </c>
       <c r="C78">
-        <v>-0.001680578028200495</v>
+        <v>-0.02224791059956949</v>
       </c>
       <c r="D78">
-        <v>0.07583821481324701</v>
+        <v>-0.05132422267880409</v>
       </c>
       <c r="E78">
-        <v>-0.06947304324960371</v>
+        <v>-0.00571346278059663</v>
       </c>
       <c r="F78">
-        <v>-0.04853474721752796</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0515501051156854</v>
+      </c>
+      <c r="G78">
+        <v>-0.06683770229683492</v>
+      </c>
+      <c r="H78">
+        <v>0.02774122264685701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1604469942997448</v>
+        <v>0.168262402450231</v>
       </c>
       <c r="C80">
-        <v>-0.1506052499575412</v>
+        <v>-0.06268177106761473</v>
       </c>
       <c r="D80">
-        <v>-0.6755305333889443</v>
+        <v>0.09646969104988674</v>
       </c>
       <c r="E80">
-        <v>-0.6807230101707307</v>
+        <v>-0.9602406088233962</v>
       </c>
       <c r="F80">
-        <v>-0.0850897212115732</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.09203245825370784</v>
+      </c>
+      <c r="G80">
+        <v>-0.09518060459492698</v>
+      </c>
+      <c r="H80">
+        <v>-0.03477128550563376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1590776118370403</v>
+        <v>0.1606149946237498</v>
       </c>
       <c r="C81">
-        <v>0.08336577083986077</v>
+        <v>-0.09018853225477666</v>
       </c>
       <c r="D81">
-        <v>0.04674643107006954</v>
+        <v>-0.02867717114839201</v>
       </c>
       <c r="E81">
-        <v>-0.04324276884527584</v>
+        <v>0.002288821144310742</v>
       </c>
       <c r="F81">
-        <v>0.2001238601999938</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09819429562519469</v>
+      </c>
+      <c r="G81">
+        <v>0.1383075879207304</v>
+      </c>
+      <c r="H81">
+        <v>0.03678633022849503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05730680322629748</v>
+        <v>0.04329252092349987</v>
       </c>
       <c r="C83">
-        <v>-0.01932497365794734</v>
+        <v>-0.01446091913099233</v>
       </c>
       <c r="D83">
-        <v>0.05519563429339745</v>
+        <v>-0.02597043683912579</v>
       </c>
       <c r="E83">
-        <v>-0.01821991063209345</v>
+        <v>0.01059208338556421</v>
       </c>
       <c r="F83">
-        <v>-0.06409298450194301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01822899936296803</v>
+      </c>
+      <c r="G83">
+        <v>-0.05779266020482864</v>
+      </c>
+      <c r="H83">
+        <v>0.03727435942539942</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2168047101434496</v>
+        <v>0.2176371659935686</v>
       </c>
       <c r="C85">
-        <v>0.06125512807792847</v>
+        <v>-0.1116209360892907</v>
       </c>
       <c r="D85">
-        <v>0.05653920084216164</v>
+        <v>-0.06930835377901798</v>
       </c>
       <c r="E85">
-        <v>-0.06006027327838066</v>
+        <v>0.008573741937732507</v>
       </c>
       <c r="F85">
-        <v>0.2359405542891224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1275909245840577</v>
+      </c>
+      <c r="G85">
+        <v>0.1939735123531474</v>
+      </c>
+      <c r="H85">
+        <v>0.03079627144671926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02246748113371604</v>
+        <v>0.01140147941302266</v>
       </c>
       <c r="C86">
-        <v>-0.01367732808014652</v>
+        <v>8.995593073011788e-05</v>
       </c>
       <c r="D86">
-        <v>0.04622815144893669</v>
+        <v>-0.02567934169813225</v>
       </c>
       <c r="E86">
-        <v>-0.05310312515332118</v>
+        <v>0.002457342988734056</v>
       </c>
       <c r="F86">
-        <v>-0.1008223121292623</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02279884712025165</v>
+      </c>
+      <c r="G86">
+        <v>-0.09943697438553006</v>
+      </c>
+      <c r="H86">
+        <v>0.05961048204375065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01653616519686763</v>
+        <v>0.0239335874932464</v>
       </c>
       <c r="C87">
-        <v>0.03424322139809845</v>
+        <v>-0.003181639368053604</v>
       </c>
       <c r="D87">
-        <v>-0.03628444551609263</v>
+        <v>0.01182436480208328</v>
       </c>
       <c r="E87">
-        <v>0.03062418204263302</v>
+        <v>0.001484314416412567</v>
       </c>
       <c r="F87">
-        <v>-0.08395065298939215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.00705450729188209</v>
+      </c>
+      <c r="G87">
+        <v>-0.09421534897886301</v>
+      </c>
+      <c r="H87">
+        <v>-0.001674842059923019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01139496549433252</v>
+        <v>0.03465808130538859</v>
       </c>
       <c r="C88">
-        <v>0.01739097201052827</v>
+        <v>0.008485041852970823</v>
       </c>
       <c r="D88">
-        <v>-0.008786214363795125</v>
+        <v>0.009797384461166991</v>
       </c>
       <c r="E88">
-        <v>-0.01823765461627806</v>
+        <v>-0.005572249070200012</v>
       </c>
       <c r="F88">
-        <v>-0.02605545305115701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01436894599092293</v>
+      </c>
+      <c r="G88">
+        <v>-0.007650061811847389</v>
+      </c>
+      <c r="H88">
+        <v>0.02810906458981176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08449009274627313</v>
+        <v>0.1434590725339755</v>
       </c>
       <c r="C89">
-        <v>0.1127871626750275</v>
+        <v>-0.01381530331861545</v>
       </c>
       <c r="D89">
-        <v>-0.210971965691105</v>
+        <v>0.3377915314302329</v>
       </c>
       <c r="E89">
-        <v>0.2460973188761313</v>
+        <v>0.09385685244330633</v>
       </c>
       <c r="F89">
-        <v>-0.06545707676662238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1830335579877144</v>
+      </c>
+      <c r="G89">
+        <v>-0.002865813497712736</v>
+      </c>
+      <c r="H89">
+        <v>0.09397923036998723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08066492075565945</v>
+        <v>0.1084479834680999</v>
       </c>
       <c r="C90">
-        <v>0.1129371586979421</v>
+        <v>-0.007803923979965557</v>
       </c>
       <c r="D90">
-        <v>-0.2436262906006284</v>
+        <v>0.2863513492607349</v>
       </c>
       <c r="E90">
-        <v>0.1958032617385953</v>
+        <v>0.06127681464801222</v>
       </c>
       <c r="F90">
-        <v>-0.02590019202378614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1703537306532556</v>
+      </c>
+      <c r="G90">
+        <v>0.03185771754000005</v>
+      </c>
+      <c r="H90">
+        <v>0.05525025672352741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2834027745239452</v>
+        <v>0.2522993039863788</v>
       </c>
       <c r="C91">
-        <v>0.07869540366369426</v>
+        <v>-0.1394200469332771</v>
       </c>
       <c r="D91">
-        <v>0.08114895260911673</v>
+        <v>-0.07152380311337179</v>
       </c>
       <c r="E91">
-        <v>-0.05274910520635945</v>
+        <v>0.0155035164239222</v>
       </c>
       <c r="F91">
-        <v>0.3065560639795664</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1329514144040543</v>
+      </c>
+      <c r="G91">
+        <v>0.2519932591751535</v>
+      </c>
+      <c r="H91">
+        <v>0.05824550032016196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1203135010943392</v>
+        <v>0.174098782860157</v>
       </c>
       <c r="C92">
-        <v>0.09692990844733976</v>
+        <v>-0.0835892840510729</v>
       </c>
       <c r="D92">
-        <v>-0.2567716671647069</v>
+        <v>0.2956193229793952</v>
       </c>
       <c r="E92">
-        <v>0.199525210746705</v>
+        <v>0.04599009258622556</v>
       </c>
       <c r="F92">
-        <v>-0.0004766914689591992</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1614343006874581</v>
+      </c>
+      <c r="G92">
+        <v>0.08380983426167732</v>
+      </c>
+      <c r="H92">
+        <v>0.1728378324435389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07650893908891125</v>
+        <v>0.1287069968626308</v>
       </c>
       <c r="C93">
-        <v>0.101015903483095</v>
+        <v>-0.017139296380242</v>
       </c>
       <c r="D93">
-        <v>-0.2946747161287482</v>
+        <v>0.3262376386361006</v>
       </c>
       <c r="E93">
-        <v>0.2629072290663576</v>
+        <v>0.08061205136458793</v>
       </c>
       <c r="F93">
-        <v>-0.004647216221783263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2235421572708815</v>
+      </c>
+      <c r="G93">
+        <v>0.03897495054680992</v>
+      </c>
+      <c r="H93">
+        <v>-0.01655575063211516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2398721599564174</v>
+        <v>0.2600809313252782</v>
       </c>
       <c r="C94">
-        <v>0.1043828445687617</v>
+        <v>-0.122038295242773</v>
       </c>
       <c r="D94">
-        <v>0.003081864985530381</v>
+        <v>-0.01909405735710198</v>
       </c>
       <c r="E94">
-        <v>-0.02454272167699844</v>
+        <v>0.03457307959852033</v>
       </c>
       <c r="F94">
-        <v>0.3321436718577855</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1232053707242752</v>
+      </c>
+      <c r="G94">
+        <v>0.2797945097044657</v>
+      </c>
+      <c r="H94">
+        <v>0.04594182933160648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1412788025256662</v>
+        <v>0.09779436779601787</v>
       </c>
       <c r="C95">
-        <v>-0.0003033357300777418</v>
+        <v>-0.05642958087247424</v>
       </c>
       <c r="D95">
-        <v>0.133089404756093</v>
+        <v>-0.058289557854251</v>
       </c>
       <c r="E95">
-        <v>-0.03852788126120778</v>
+        <v>0.07564785630726689</v>
       </c>
       <c r="F95">
-        <v>-0.09984209884444961</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03650344626044816</v>
+      </c>
+      <c r="G95">
+        <v>-0.09798685691641117</v>
+      </c>
+      <c r="H95">
+        <v>0.1340698049632382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1980136643422206</v>
+        <v>0.1803972085940609</v>
       </c>
       <c r="C98">
-        <v>0.06325017438998244</v>
+        <v>-0.08905547458346007</v>
       </c>
       <c r="D98">
-        <v>-0.01493193492826324</v>
+        <v>0.0325683388260633</v>
       </c>
       <c r="E98">
-        <v>0.1034038366120508</v>
+        <v>0.06870643651154676</v>
       </c>
       <c r="F98">
-        <v>-0.1049582592273274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01497743181297277</v>
+      </c>
+      <c r="G98">
+        <v>-0.1947503535845271</v>
+      </c>
+      <c r="H98">
+        <v>-0.3927080644823105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002571106835658938</v>
+        <v>0.01368978030146649</v>
       </c>
       <c r="C101">
-        <v>0.02337004060336968</v>
+        <v>-0.001575049118810066</v>
       </c>
       <c r="D101">
-        <v>0.03947324268968916</v>
+        <v>-0.005997372113839033</v>
       </c>
       <c r="E101">
-        <v>-0.05715933504486852</v>
+        <v>-0.004740861346416709</v>
       </c>
       <c r="F101">
-        <v>-0.0629717602247627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03983306665874981</v>
+      </c>
+      <c r="G101">
+        <v>-0.07769887981559948</v>
+      </c>
+      <c r="H101">
+        <v>0.1103691774652043</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09617351883779654</v>
+        <v>0.1153921139694365</v>
       </c>
       <c r="C102">
-        <v>0.02577200496063869</v>
+        <v>-0.05147573012827128</v>
       </c>
       <c r="D102">
-        <v>0.04142273552475403</v>
+        <v>-0.03127810091981369</v>
       </c>
       <c r="E102">
-        <v>-0.05067719531443893</v>
+        <v>-0.001119093678094478</v>
       </c>
       <c r="F102">
-        <v>0.1239849861445616</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06795818899336289</v>
+      </c>
+      <c r="G102">
+        <v>0.1202329899457597</v>
+      </c>
+      <c r="H102">
+        <v>0.01818362283610611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02639878938509242</v>
+        <v>0.02471773361145358</v>
       </c>
       <c r="C103">
-        <v>0.006284390752375661</v>
+        <v>-0.0119185077951758</v>
       </c>
       <c r="D103">
-        <v>0.004781616829737781</v>
+        <v>-0.007291561791704204</v>
       </c>
       <c r="E103">
-        <v>-0.0003266672396278999</v>
+        <v>-0.007399793121566107</v>
       </c>
       <c r="F103">
-        <v>0.03961412657094945</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.014017221651976</v>
+      </c>
+      <c r="G103">
+        <v>0.01465541306842004</v>
+      </c>
+      <c r="H103">
+        <v>0.01760257114615696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3528662501019507</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9138950277218423</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02834958761102102</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01513838000297877</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1656368161294811</v>
+      </c>
+      <c r="G104">
+        <v>0.0544356188941308</v>
+      </c>
+      <c r="H104">
+        <v>0.002352459413456456</v>
       </c>
     </row>
   </sheetData>
